--- a/sofaplayer/Premier_League/Wolverhampton_stats.xlsx
+++ b/sofaplayer/Premier_League/Wolverhampton_stats.xlsx
@@ -7451,7 +7451,7 @@
         <v>1260</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
